--- a/rodrigo_Dico_des_données.xlsx
+++ b/rodrigo_Dico_des_données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfr20\Desktop\Syst_info\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A190BCD9-A88F-402A-94DF-78B2789F5F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6A774-FFA1-4505-9715-571FB7BB19C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="2210" windowWidth="14400" windowHeight="8280" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>code rubrique</t>
   </si>
@@ -48,9 +48,6 @@
     <t>numEleve</t>
   </si>
   <si>
-    <t>numéro de l'élève</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -66,18 +63,12 @@
     <t>nomEleve</t>
   </si>
   <si>
-    <t>nom de famille de l'élève</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>prénomElève</t>
   </si>
   <si>
-    <t>prénom de l'élève</t>
-  </si>
-  <si>
     <t>numSalle</t>
   </si>
   <si>
@@ -87,12 +78,6 @@
     <t>capacité</t>
   </si>
   <si>
-    <t>numéro de la salle</t>
-  </si>
-  <si>
-    <t>capacité de la salle</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -102,63 +87,30 @@
     <t>numTelParent</t>
   </si>
   <si>
-    <t>numéro de téléphone des parents</t>
-  </si>
-  <si>
     <t>matière</t>
   </si>
   <si>
-    <t>nom de la matière</t>
-  </si>
-  <si>
     <t>numEnseignant</t>
   </si>
   <si>
-    <t>numéro de l'enseignant</t>
-  </si>
-  <si>
-    <t>typeDeCours</t>
-  </si>
-  <si>
-    <t>type de cours(cours, TD, TP)</t>
-  </si>
-  <si>
     <t>demi-groupe</t>
   </si>
   <si>
     <t>emailParent</t>
   </si>
   <si>
-    <t>adresse mail du representant légal</t>
-  </si>
-  <si>
-    <t>type de salle(Labo, machine,sport,classe)</t>
-  </si>
-  <si>
     <t>typeSalle</t>
   </si>
   <si>
     <t>numClasse</t>
   </si>
   <si>
-    <t>numéro de classe</t>
-  </si>
-  <si>
     <t>semaine</t>
   </si>
   <si>
-    <t>type de semaine(A ou B)</t>
-  </si>
-  <si>
     <t>Un cours ne peut pas débuté à 12h</t>
   </si>
   <si>
-    <t>date du debut de l'absence</t>
-  </si>
-  <si>
-    <t>fin de l'absence</t>
-  </si>
-  <si>
     <t>sexeParent</t>
   </si>
   <si>
@@ -168,109 +120,169 @@
     <t>debutAbsence</t>
   </si>
   <si>
-    <t>sexe du responsable légal</t>
-  </si>
-  <si>
     <t>NomParent</t>
   </si>
   <si>
-    <t>nom de famille du responsable légal</t>
-  </si>
-  <si>
-    <t>TypeContactPref</t>
-  </si>
-  <si>
-    <t>moyen de contact préférentiel du responsable légal</t>
-  </si>
-  <si>
-    <t>identifie le creneau</t>
-  </si>
-  <si>
     <t>dateDebutCreneau</t>
   </si>
   <si>
-    <t>date du debut du creneau</t>
-  </si>
-  <si>
     <t>heureDebutCreneau</t>
   </si>
   <si>
-    <t>heure du début du creneau</t>
-  </si>
-  <si>
     <t>idSéance</t>
   </si>
   <si>
-    <t>identifie la séance</t>
-  </si>
-  <si>
     <t>idCreneau</t>
   </si>
   <si>
     <t>idAbsence</t>
   </si>
   <si>
-    <t>identifie une absence</t>
-  </si>
-  <si>
     <t>nomMatériel</t>
   </si>
   <si>
-    <t>nom du matériel</t>
-  </si>
-  <si>
     <t>numMatPrêtable</t>
   </si>
   <si>
-    <t>numéro du matériel prêtable</t>
-  </si>
-  <si>
     <t>numMatSalle</t>
   </si>
   <si>
-    <t>numéro du matériel présent dans la salle</t>
-  </si>
-  <si>
     <t>jourCreneau</t>
   </si>
   <si>
-    <t>jour de la semaine où se déroule le créneau</t>
-  </si>
-  <si>
-    <t>heure à laquelle se déroule le créneau</t>
-  </si>
-  <si>
     <t>heureCreneau</t>
   </si>
   <si>
     <t>idSeanceExcep</t>
   </si>
   <si>
-    <t>numéro de la séance exceptionnelle</t>
-  </si>
-  <si>
     <t>Heure</t>
   </si>
   <si>
     <t>dateReport</t>
   </si>
   <si>
-    <t>date à laquelle est reportée la séance</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>dateOrigine</t>
   </si>
   <si>
-    <t>date à laquelle devait se tenir originellement la séance</t>
-  </si>
-  <si>
     <t>raisonReport</t>
   </si>
   <si>
-    <t>raison du report de la séance</t>
+    <t>typeDeSéance</t>
+  </si>
+  <si>
+    <t>cours, TD, TP</t>
+  </si>
+  <si>
+    <t>Labo, machine, sport, classique</t>
+  </si>
+  <si>
+    <t>typeContactPref</t>
+  </si>
+  <si>
+    <t>A ou B</t>
+  </si>
+  <si>
+    <t>Capacité de la salle</t>
+  </si>
+  <si>
+    <t>Date du debut du creneau</t>
+  </si>
+  <si>
+    <t>Date à laquelle devait se tenir originellement la séance</t>
+  </si>
+  <si>
+    <t>Date à laquelle est reportée la séance</t>
+  </si>
+  <si>
+    <t>Date du debut de l'absence</t>
+  </si>
+  <si>
+    <t>Numéro du demi-groupe</t>
+  </si>
+  <si>
+    <t>Adresse mail du representant légal</t>
+  </si>
+  <si>
+    <t>Date de fin de l'absence</t>
+  </si>
+  <si>
+    <t>Heure à laquelle se déroule le créneau</t>
+  </si>
+  <si>
+    <t>Heure du début du creneau</t>
+  </si>
+  <si>
+    <t>Numéro de l'absence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro du créneau </t>
+  </si>
+  <si>
+    <t>Numéro de séance</t>
+  </si>
+  <si>
+    <t>Numéro de la séance exceptionnelle</t>
+  </si>
+  <si>
+    <t>Jour de la semaine où se déroule le créneau</t>
+  </si>
+  <si>
+    <t>Nom de la matière</t>
+  </si>
+  <si>
+    <t>Nom de famille de l'élève</t>
+  </si>
+  <si>
+    <t>Nom du matériel</t>
+  </si>
+  <si>
+    <t>Nom de famille du responsable légal</t>
+  </si>
+  <si>
+    <t>Numéro de classe</t>
+  </si>
+  <si>
+    <t>Numéro de l'élève</t>
+  </si>
+  <si>
+    <t>Numéro de l'enseignant</t>
+  </si>
+  <si>
+    <t>Numéro du matériel prêtable</t>
+  </si>
+  <si>
+    <t>Numéro du matériel présent dans la salle</t>
+  </si>
+  <si>
+    <t>Numéro de la salle</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone des parents</t>
+  </si>
+  <si>
+    <t>Prénom de l'élève</t>
+  </si>
+  <si>
+    <t>Raison du report de la séance</t>
+  </si>
+  <si>
+    <t>Type de semaine</t>
+  </si>
+  <si>
+    <t>Sexe du responsable légal</t>
+  </si>
+  <si>
+    <t>Moyen de contact préférentiel du responsable légal</t>
+  </si>
+  <si>
+    <t>Type de cours</t>
+  </si>
+  <si>
+    <t>Type de salle</t>
   </si>
 </sst>
 </file>
@@ -641,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -673,482 +685,501 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>